--- a/03Excel_FuncionesAvanzadas/01FuncionesLogicas.xlsx
+++ b/03Excel_FuncionesAvanzadas/01FuncionesLogicas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\Excel-Career\03Excel_FuncionesAvanzadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5464B233-9C2A-4789-9F34-73F1210555AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EFC0FE-EB6A-44FA-AB94-96ACCFF7498D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{6C958FC5-7721-46D1-9ADF-4AABAF0BEB1F}"/>
   </bookViews>
@@ -18,6 +18,8 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>NOTAS</t>
   </si>
@@ -119,12 +121,18 @@
   </si>
   <si>
     <t>PRECIO VENTA</t>
+  </si>
+  <si>
+    <t>Valores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0&quot;Kg&quot;;[Red]\-#,##0&quot;Kg&quot;;[Blue]0&quot;Kg&quot;;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,28 +185,138 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -507,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A407FE-D5D4-461A-B06D-63DEB0DBE041}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,40 +722,54 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B2)</f>
         <v>=SI(A2&gt;=5;"Aprobado";"Suspendido")</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C2)</f>
         <v>=SI.CONJUNTO(A2&gt;=9;"Sobresaliente";A2&gt;=7;"Notable";A2 &gt;= 6;"Bien";A2 &gt;= 5;"Suficiente";A2 &lt;= 4;"Insuficiente")</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>545</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <f>IF(ISNUMBER(A12),A12/7,"NO ES UN NÚMERO")</f>
         <v>77.857142857142861</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f>IFERROR(A15/A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -646,6 +778,14 @@
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="C12:D12"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>A2&gt;=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>A2&lt;5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -870,31 +1010,31 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1089,4 +1229,166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8455FFF5-10E3-4198-B691-375876B43CB0}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>12354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>-12354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>5236987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>-32574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17784D18-09DD-45A7-8A4B-D34E6CC1467B}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8">
+        <v>45035</v>
+      </c>
+      <c r="I1" s="8">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>125</v>
+      </c>
+      <c r="G2" s="8">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>84</v>
+      </c>
+      <c r="G3" s="8">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A9">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="8" priority="5" percent="1" rank="10"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="4" aboveAverage="0"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G3">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>TODAY()</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>TODAY() +10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{FECC1119-DA12-4095-9A84-B31A66F709C4}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A2:A9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>